--- a/biology/Zoologie/Bowie_ziggystardust/Bowie_ziggystardust.xlsx
+++ b/biology/Zoologie/Bowie_ziggystardust/Bowie_ziggystardust.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bowie ziggystardust est une espèce d'araignées aranéomorphes de la famille des Ctenidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bowie ziggystardust est une espèce d'araignées aranéomorphes de la famille des Ctenidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la province de Bagmati au Népal[1],[2]. Elle se rencontre dans le district de Katmandou vers Gokarnaban.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la province de Bagmati au Népal,. Elle se rencontre dans le district de Katmandou vers Gokarnaban.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 4,7 mm de long sur 3,6 mm et l'abdomen 4,0 mm de long sur 2,9 mm et la carapace de la femelle paratype mesure 4,8 mm de long sur 3,8 mm et l'abdomen 6,3 mm de long sur 4,4 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 4,7 mm de long sur 3,6 mm et l'abdomen 4,0 mm de long sur 2,9 mm et la carapace de la femelle paratype mesure 4,8 mm de long sur 3,8 mm et l'abdomen 6,3 mm de long sur 4,4 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Jäger en 2022.
 </t>
@@ -604,7 +622,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence à Ziggy Stardust, le personnage de David Bowie.
 </t>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Jäger, 2022 : « Bowie gen. nov., a diverse lineage of ground-dwelling spiders occurring from the Himalayas to Papua New Guinea and northern Australia (Araneae: Ctenidae: Cteninae). » Zootaxa, no 5170(1), p. 1-200.</t>
         </is>
